--- a/test_cases/trench_sed_model/adapt_output.xlsx
+++ b/test_cases/trench_sed_model/adapt_output.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/trench_sed_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBC8541D-9CA4-FD4A-AF16-45DAAE224FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC09F8B6-5F7A-9B4D-8051-69119E7D99BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14500" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
+    <workbookView xWindow="480" yWindow="720" windowWidth="25040" windowHeight="14500" activeTab="1" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>alpha</t>
   </si>
@@ -46,12 +47,24 @@
   <si>
     <t>EXP ERROR</t>
   </si>
+  <si>
+    <t>0.2 no diff</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>0.1 no diff</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,13 +72,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,10 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,19 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF20173-9AFF-B642-8650-4DF6BB71CC54}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:U125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -420,138 +449,2717 @@
       <c r="C1">
         <v>0.1</v>
       </c>
-      <c r="D1">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1">
+        <v>0.4</v>
+      </c>
+      <c r="J1">
+        <v>0.8</v>
+      </c>
+      <c r="K1">
+        <v>2</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0.1</v>
+      </c>
+      <c r="Q1">
         <v>0.2</v>
       </c>
-      <c r="E1">
+      <c r="R1">
         <v>0.4</v>
       </c>
-      <c r="F1">
+      <c r="S1">
         <v>0.8</v>
       </c>
-      <c r="G1">
+      <c r="T1">
         <v>2</v>
       </c>
-      <c r="H1">
+      <c r="U1">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0.1</v>
-      </c>
-      <c r="M1">
-        <v>0.2</v>
-      </c>
-      <c r="N1">
-        <v>0.4</v>
-      </c>
-      <c r="O1">
-        <v>0.8</v>
-      </c>
-      <c r="P1">
-        <v>2</v>
-      </c>
-      <c r="Q1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
         <v>4.5485892978733801E-3</v>
       </c>
+      <c r="E2">
+        <v>1.36208439925326E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5.3746501835632902E-6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.53576207901671E-7</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4.22654190192125E-8</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>358</v>
+      </c>
+      <c r="Q2">
+        <v>425</v>
+      </c>
+      <c r="R2">
+        <v>507</v>
+      </c>
+      <c r="S2">
+        <v>805</v>
+      </c>
+      <c r="T2" s="3">
+        <v>4381.0954709053003</v>
+      </c>
+      <c r="U2" s="3">
+        <v>47910.581159114801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.5542410174250398E-4</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="Q3" s="1">
+        <v>754.60182714462201</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.8433451976046098E-4</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="Q4" s="1">
+        <v>963.61135339736904</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.21799492812469E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.3472858176814201E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.8362977372474098E-4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.0916979365100199E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1293.9162950515699</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="Q5" s="1">
+        <v>1044.6700155735</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3691387650888402E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.0325002899985301E-4</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1126.6862893104501</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.6448672388871101E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.23867892250028E-4</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1166.1134190559301</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="O8">
+        <v>60</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.9641880206863802E-4</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="O9">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1224.27467894554</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.954727028265E-3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>3.2200900488785499E-4</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10" s="1">
+        <v>988.69006085395802</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1255.16105318069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.7479642176697601E-3</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="O11">
+        <v>150</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1009.32486605644</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.57155778749281E-3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1043.2921893596599</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.4121188063691399E-3</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>4.1242004417556402E-4</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="O13">
+        <v>250</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1029.94991135597</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1312.3135809898299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.2679911074851202E-3</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="O14">
+        <v>300</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1017.83679389953</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>350</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.1453055586159102E-3</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="O15">
+        <v>350</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1007.68403410911</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>400</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.0364294237800399E-3</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>4.2605485556907401E-4</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="O16">
+        <v>400</v>
+      </c>
+      <c r="P16" s="1">
+        <v>994.16735076904297</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1325.33484244346</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>450</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.9445453989765701E-3</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="O17">
+        <v>450</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1016.3261086940699</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>500</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.8695785438196499E-3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>4.16763749612337E-4</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="O18">
+        <v>500</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1012.46223664283</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1316.2837903499601</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>550</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.80631354782718E-3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="O19">
+        <v>550</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1013.43410062789</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>600</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.7543702513654099E-3</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="O20">
+        <v>600</v>
+      </c>
+      <c r="P20" s="1">
+        <v>997.46558094024601</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>650</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.71098243843249E-3</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="O21">
+        <v>650</v>
+      </c>
+      <c r="P21" s="1">
+        <v>986.87160515785195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>700</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.6741120697645699E-3</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="O22">
+        <v>700</v>
+      </c>
+      <c r="P22" s="1">
+        <v>977.71919202804497</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>750</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.6431085235563199E-3</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>4.2527621646476699E-4</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="O23">
+        <v>750</v>
+      </c>
+      <c r="P23" s="1">
+        <v>964.60507035255398</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1308.6981894969899</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>800</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.61648641408333E-3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="O24">
+        <v>800</v>
+      </c>
+      <c r="P24" s="1">
+        <v>959.83836293220497</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>850</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.5901392140455399E-3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="O25">
+        <v>850</v>
+      </c>
+      <c r="P25" s="1">
+        <v>958.78311967849697</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>900</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.5650168253041399E-3</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="O26">
+        <v>900</v>
+      </c>
+      <c r="P26" s="1">
+        <v>950.68646860122601</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>950</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.5418691453266901E-3</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="O27">
+        <v>950</v>
+      </c>
+      <c r="P27" s="1">
+        <v>951.278824567794</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.52096314436847E-3</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="O28">
+        <v>1000</v>
+      </c>
+      <c r="P28" s="1">
+        <v>944.12047696113495</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>1050</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.5024800726821501E-3</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="O29">
+        <v>1050</v>
+      </c>
+      <c r="P29" s="1">
+        <v>945.68330526351895</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>1100</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.4849973587677001E-3</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="O30">
+        <v>1100</v>
+      </c>
+      <c r="P30" s="1">
+        <v>932.91939067840497</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>1150</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.4691169786748199E-3</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="O31">
+        <v>1150</v>
+      </c>
+      <c r="P31" s="1">
+        <v>923.016675949096</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>1200</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.4557795488201E-3</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="O32">
+        <v>1200</v>
+      </c>
+      <c r="P32" s="1">
+        <v>950.78369569778397</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>1250</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.4425228698556199E-3</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="O33">
+        <v>1250</v>
+      </c>
+      <c r="P33" s="1">
+        <v>926.515026569366</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1300</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.42956457100618E-3</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="O34">
+        <v>1300</v>
+      </c>
+      <c r="P34" s="1">
+        <v>921.67938423156704</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1350</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.4166655882906099E-3</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="O35">
+        <v>1350</v>
+      </c>
+      <c r="P35" s="1">
+        <v>920.52176213264397</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>1400</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.40525479912371E-3</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="O36">
+        <v>1400</v>
+      </c>
+      <c r="P36" s="1">
+        <v>909.44783329963605</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>1450</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.3950070679983799E-3</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="O37">
+        <v>1450</v>
+      </c>
+      <c r="P37" s="1">
+        <v>908.73448681831303</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.3861529476453299E-3</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="O38">
+        <v>1500</v>
+      </c>
+      <c r="P38" s="1">
+        <v>881.97837901115395</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>1550</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.3799902945994601E-3</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="O39">
+        <v>1550</v>
+      </c>
+      <c r="P39" s="1">
+        <v>900.29266786575295</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1600</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.3737254100963301E-3</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="O40">
+        <v>1600</v>
+      </c>
+      <c r="P40" s="1">
+        <v>888.77292132377602</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>1650</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.3673607005211599E-3</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="O41">
+        <v>1650</v>
+      </c>
+      <c r="P41" s="1">
+        <v>915.41692209243695</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>1700</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.36072315216975E-3</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="O42">
+        <v>1700</v>
+      </c>
+      <c r="P42" s="1">
+        <v>892.76290726661603</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>1750</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.3547623978628601E-3</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="O43">
+        <v>1750</v>
+      </c>
+      <c r="P43" s="1">
+        <v>884.59806203842095</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>1800</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.34960916308879E-3</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="O44">
+        <v>1800</v>
+      </c>
+      <c r="P44" s="1">
+        <v>875.80460810661305</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>1850</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.3439183634268901E-3</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="O45">
+        <v>1850</v>
+      </c>
+      <c r="P45" s="1">
+        <v>878.83267521858204</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>1900</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.3403729744292201E-3</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="O46">
+        <v>1900</v>
+      </c>
+      <c r="P46" s="1">
+        <v>889.09546566009499</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>1950</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.3375145726965199E-3</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="O47">
+        <v>1950</v>
+      </c>
+      <c r="P47" s="1">
+        <v>883.70431184768597</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="5">
+        <v>2000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.3364207940665799E-3</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="O48">
+        <v>2000</v>
+      </c>
+      <c r="P48" s="1">
+        <v>882.57845735549904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>2050</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.33593574386161E-3</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="O49">
+        <v>2050</v>
+      </c>
+      <c r="P49" s="1">
+        <v>878.50884532928399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B50" s="5">
+        <v>2100</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.33572613066768E-3</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="O50">
+        <v>2100</v>
+      </c>
+      <c r="P50" s="1">
+        <v>871.92544913291897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>2150</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.3353657290668E-3</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="O51">
+        <v>2150</v>
+      </c>
+      <c r="P51" s="1">
+        <v>870.18860387802101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B52" s="5">
+        <v>2200</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.3336962531959101E-3</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="O52">
+        <v>2200</v>
+      </c>
+      <c r="P52" s="1">
+        <v>871.70467638969399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>2250</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.33165623217226E-3</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="O53">
+        <v>2250</v>
+      </c>
+      <c r="P53" s="1">
+        <v>863.89843320846501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B54" s="5">
+        <v>2300</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1.3303083094153699E-3</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="O54">
+        <v>2300</v>
+      </c>
+      <c r="P54" s="1">
+        <v>867.40629148483197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>2350</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.33183433355067E-3</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="O55">
+        <v>2350</v>
+      </c>
+      <c r="P55" s="1">
+        <v>860.53733491897503</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="5">
+        <v>2400</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.33476392622381E-3</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="O56">
+        <v>2400</v>
+      </c>
+      <c r="P56" s="1">
+        <v>862.82326579093899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>2500</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.3435685979149199E-3</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="O57">
+        <v>2500</v>
+      </c>
+      <c r="P57" s="1">
+        <v>857.38826465606599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>2750</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.3503799232214501E-3</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="O58">
+        <v>2750</v>
+      </c>
+      <c r="P58" s="1">
+        <v>804.743912458419</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B59" s="5">
+        <v>3000</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.3584828240251999E-3</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="O59">
+        <v>3000</v>
+      </c>
+      <c r="P59" s="1">
+        <v>848.80315685272205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="5">
+        <v>3500</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.37626381324062E-3</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="O60">
+        <v>3500</v>
+      </c>
+      <c r="P60" s="1">
+        <v>790.48676204681396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B61" s="5">
+        <v>4000</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.38865847591087E-3</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="O61">
+        <v>4000</v>
+      </c>
+      <c r="P61" s="1">
+        <v>777.578877687454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B62" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1.8088476394550499E-2</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="O62">
+        <v>5000</v>
+      </c>
+      <c r="P62" s="1">
+        <v>757.68910956382695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0.1</v>
+      </c>
+      <c r="E64">
+        <v>0.2</v>
+      </c>
+      <c r="I64">
+        <v>0.4</v>
+      </c>
+      <c r="J64">
+        <v>0.8</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>5.4349612276588501E-2</v>
+      </c>
+      <c r="E65">
+        <v>4.7551119137370097E-2</v>
+      </c>
+      <c r="I65">
+        <v>3.08415811722417E-2</v>
+      </c>
+      <c r="J65">
+        <v>3.0981412309963201E-2</v>
+      </c>
+      <c r="K65">
+        <v>3.09816586753149E-2</v>
+      </c>
+      <c r="L65">
+        <v>3.09817589138358E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3.2771918828510598E-2</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3.0840213663958799E-2</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2.8898967398740701E-2</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2.6072296604007901E-2</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2.3174054981719101E-2</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>60</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2.1561025296862098E-2</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3.1560426996022801E-2</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
+        <v>2.1006311355667599E-2</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>150</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2.9017601860044599E-2</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>200</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.7329829209526601E-2</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>250</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2.5762578498361902E-2</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1">
+        <v>2.0644358040831701E-2</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>300</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2.4694672071727802E-2</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>350</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2.38243269839464E-2</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>400</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2.28239839979704E-2</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1">
+        <v>2.0443308492105398E-2</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>450</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2.21338866176569E-2</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>500</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2.1714184501354501E-2</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1">
+        <v>2.05945136848294E-2</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>550</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2.1259040262468901E-2</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>600</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2.06979103946178E-2</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>650</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2.0257118468089599E-2</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>700</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1.9921440355621E-2</v>
+      </c>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>750</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.9670529274689898E-2</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1">
+        <v>2.0830896335405601E-2</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>800</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.94890179425476E-2</v>
+      </c>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>850</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.93615754828927E-2</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>900</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1.9325305318486301E-2</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>950</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1.9334466861376701E-2</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>1000</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1.9189583309785801E-2</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>1050</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1.8942068334140499E-2</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>1100</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1.8756123621631E-2</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>1150</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1.8636345822159499E-2</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>1200</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1.8546737929819701E-2</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>1250</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1.8494165889621599E-2</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>1300</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1.8474822167142899E-2</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>1350</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1.8483956639226602E-2</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>1400</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1.8508438967755E-2</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>1450</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1.8561328709137199E-2</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>1500</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1.86497438235236E-2</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>1550</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1.8722588952336101E-2</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>1600</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1.8706055128356502E-2</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>1650</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1.85796291661483E-2</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>1700</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1.8427909280480999E-2</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>1750</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1.83191561003281E-2</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>1800</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1.82498009546125E-2</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>1850</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1.8202705642802599E-2</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>1900</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1.8177269895825798E-2</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>1950</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1.8197258702514499E-2</v>
+      </c>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>2000</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1.82499602935942E-2</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>2050</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1.8292927472103499E-2</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>2100</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1.8284258846680099E-2</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>2150</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1.8233663438081801E-2</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>2200</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1.8173048945249001E-2</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>2250</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1.8118458170022601E-2</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>2300</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1.8069143176886501E-2</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>2350</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1.80224762337927E-2</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>2400</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.79761181068403E-2</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>2500</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.7895683832219601E-2</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>2750</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1.7866260174731301E-2</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>3000</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1.79124936656881E-2</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>3500</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1.81899232764768E-2</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>4000</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.81514958241259E-2</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>5000</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.4018155217858301E-3</v>
+      </c>
+      <c r="D125" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10606F8F-2CF2-F24F-9F2B-6B5CA5CC7A31}">
+  <dimension ref="A1:S86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>0.4</v>
+      </c>
+      <c r="H1">
+        <v>0.8</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4.5485892978733801E-3</v>
+      </c>
       <c r="D2">
+        <v>4.5485892978733801E-3</v>
+      </c>
+      <c r="E2">
         <v>1.36208439925326E-3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2">
+        <v>1.36208439925326E-3</v>
+      </c>
+      <c r="G2" s="2">
         <v>5.3746501835632902E-6</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="2">
         <v>2.53576207901671E-7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="2">
         <v>4.22654190192125E-8</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.35083350702894E-4</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.8585278675048499E-4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.0227627011302099E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.0428038582238099E-3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.78161784297481E-4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.9498558943161599E-4</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.6847650848951499E-3</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>2.4753885920357602E-4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.8963963406853797E-4</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2.3341348842129098E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.1817961809364799E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.3814556645912698E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.0153405815575001E-4</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.26071001895511E-3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.0015176105833499E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.6156272146651902E-4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.2533999438029799E-4</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.21799492812469E-3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.57123254743036E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.8362977372474098E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.7308684338507597E-4</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.3691387650888402E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.37444083753349E-3</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.6448672388871101E-3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.3348103532335499E-3</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.37026693386399E-3</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>0.4</v>
+      </c>
+      <c r="H16">
+        <v>0.8</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>5.4349612276588501E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.7551119137370097E-2</v>
+      </c>
+      <c r="F17">
+        <v>4.7551119137370097E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.08415811722417E-2</v>
+      </c>
+      <c r="H17">
+        <v>3.0981412309963201E-2</v>
+      </c>
+      <c r="I17">
+        <v>3.09816586753149E-2</v>
+      </c>
+      <c r="J17">
+        <v>3.09817589138358E-2</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <v>2.9276830469593701E-2</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <v>2.67986922732458E-2</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.2537700263402997E-2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>2.4433279491377299E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.4076109522793598E-2</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>2.7688801797698798E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.26724535348326E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.1987466501207802E-2</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.2154018418347701E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.6092916132663201E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.1163782084041301E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.0735702787165598E-2</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.0857112898213299E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.4489634770426299E-2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2.0630475502350299E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.02008083549397E-2</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.83247581220757E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.0368013265407801E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.0916979365100199E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.0324502491838699E-2</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.9364990760103201E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.87921519660884E-2</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.9819473266199299E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.8050649828845501E-2</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.8200306201789598E-2</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>358</v>
       </c>
-      <c r="M2">
+      <c r="E32">
         <v>425</v>
       </c>
-      <c r="N2">
+      <c r="G32">
         <v>507</v>
       </c>
-      <c r="O2">
+      <c r="H32">
         <v>805</v>
       </c>
-      <c r="P2" s="2">
+      <c r="I32" s="3">
         <v>4381.0954709053003</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="J32" s="3">
         <v>47910.581159114801</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0.1</v>
-      </c>
-      <c r="D10">
-        <v>0.2</v>
-      </c>
-      <c r="E10">
-        <v>0.4</v>
-      </c>
-      <c r="F10">
-        <v>0.8</v>
-      </c>
-      <c r="G10">
+      <c r="L32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E33" s="1">
+        <v>1174.62300157547</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="L33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="E34" s="1">
+        <v>1236.94693613052</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1173.3982374668101</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <v>1317.2863118648499</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1297.97289180755</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="H10">
+      <c r="C36" s="1">
+        <v>1193.6185204982701</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <v>1381.1984794139801</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1359.5781197547899</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B37">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>5.4349612276588501E-2</v>
-      </c>
-      <c r="D11">
-        <v>4.7551119137370097E-2</v>
-      </c>
-      <c r="E11">
-        <v>3.08415811722417E-2</v>
-      </c>
-      <c r="F11">
-        <v>3.0981412309963201E-2</v>
-      </c>
-      <c r="G11">
-        <v>3.09816586753149E-2</v>
-      </c>
-      <c r="H11">
-        <v>3.09817589138358E-2</v>
-      </c>
+      <c r="C37" s="1">
+        <v>1179.9670536517999</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1141.8552277088099</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1428.3527638912201</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1397.7716484069799</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1175.7681207656799</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1137.0494141578599</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1349.0962891578599</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1406.71039056777</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1088.35927176475</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1090.2222242355299</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1358.9583809375699</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1416.5813088417001</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>20</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1046.2562088966299</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1038.46350002288</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>964.033062696456</v>
+      </c>
+      <c r="D41" s="1">
+        <v>960.20608949661198</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1">
+        <v>901.76495480537403</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_cases/trench_sed_model/adapt_output.xlsx
+++ b/test_cases/trench_sed_model/adapt_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/trench_sed_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC09F8B6-5F7A-9B4D-8051-69119E7D99BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0272CC-42A5-E04E-A128-9A025174BD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="720" windowWidth="25040" windowHeight="14500" activeTab="1" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>alpha</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>0.1 no diff</t>
+    <t>diverged</t>
   </si>
 </sst>
 </file>
@@ -79,7 +79,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +89,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,14 +123,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF20173-9AFF-B642-8650-4DF6BB71CC54}">
   <dimension ref="A1:U125"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2230,848 +2254,1286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10606F8F-2CF2-F24F-9F2B-6B5CA5CC7A31}">
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:Q1048576"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C1" s="5">
+        <f t="shared" ref="C1:I1" si="0">16/(16*5*C2)</f>
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="E1" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F1" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="G1" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H1" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I1" s="5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J1" s="7">
+        <f t="shared" ref="J1" si="1">16/(16*5*J2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="K1" s="7">
+        <f t="shared" ref="K1" si="2">16/(16*5*K2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="L1" s="7">
+        <f t="shared" ref="L1" si="3">16/(16*5*L2)</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.125</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.8</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
         <v>4</v>
       </c>
-      <c r="G1">
-        <v>0.4</v>
-      </c>
-      <c r="H1">
-        <v>0.8</v>
-      </c>
-      <c r="I1">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.8681930108350601E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.27892657744216E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.36820280973251E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6.2053609221088098E-5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.7529660396450799E-6</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4.3895200803205402E-6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.7462931734768201E-7</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.3140268938039201E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.9844076624412302E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.2366816238053598E-4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2.1942794535056201E-5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.7007984273819102E-6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.4296328813932103E-6</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1.8299744977908301E-7</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="J1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>4.5485892978733801E-3</v>
-      </c>
-      <c r="D2">
-        <v>4.5485892978733801E-3</v>
-      </c>
-      <c r="E2">
-        <v>1.36208439925326E-3</v>
-      </c>
-      <c r="F2">
-        <v>1.36208439925326E-3</v>
-      </c>
-      <c r="G2" s="2">
-        <v>5.3746501835632902E-6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2.53576207901671E-7</v>
-      </c>
-      <c r="I2" s="2">
-        <v>4.22654190192125E-8</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.35083350702894E-4</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="M3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.8585278675048499E-4</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="L4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="C5" s="1">
-        <v>3.0227627011302099E-3</v>
+        <v>2.5114439066761798E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>3.0428038582238099E-3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1.78161784297481E-4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.9498558943161599E-4</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="L5" s="1"/>
+        <v>7.4793861778552702E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.18730035710828E-4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3.6792801645938497E-5</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.6919084900842897E-6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7.9068739516872295E-7</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.29505585784433E-6</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="R5" s="3"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.6847650848951499E-3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>2.4753885920357602E-4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.8963963406853797E-4</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="L6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="12">
+        <v>8.4923365078648803E-6</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4.74967329363096E-7</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="2"/>
       <c r="M6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="R6" s="3"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>2.3341348842129098E-3</v>
+      <c r="C7" s="1">
+        <v>1.63650925096638E-3</v>
       </c>
       <c r="D7" s="1">
-        <v>2.1817961809364799E-3</v>
+        <v>4.7184367814379698E-4</v>
       </c>
       <c r="E7" s="1">
-        <v>3.3814556645912698E-4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4.0153405815575001E-4</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="L7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="R7" s="3"/>
+        <v>1.14774054379023E-4</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1.43093974664379E-5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.9114372865844203E-6</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.4100000000000001E-6</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.4735444717825901E-6</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>2.26071001895511E-3</v>
+        <v>1.4075700085687301E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>2.0015176105833499E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.6156272146651902E-4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4.2533999438029799E-4</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="L8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="R8" s="3"/>
+        <v>4.1239780799631699E-4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>9.8726128026757805E-5</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1.2553410049019099E-5</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5.0922813644276704E-6</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4.5356191671668501E-7</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2.4105084677570801E-6</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="M8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>1.74053101576926E-5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6.29658780248559E-6</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3.9592483632826501E-7</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.9918942250731702E-6</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6">
+        <v>8.6305740910373399E-5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2.7448938635455699E-5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>8.7633853387611698E-6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5.8353125835061795E-7</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.9491637886536501E-6</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="M10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>2.21799492812469E-3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.57123254743036E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3.8362977372474098E-4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>4.7308684338507597E-4</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="L9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.3691387650888402E-3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.37444083753349E-3</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="L10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>40</v>
-      </c>
       <c r="C11" s="1">
-        <v>2.6448672388871101E-3</v>
+        <v>1.0061664083002601E-3</v>
       </c>
       <c r="D11" s="1">
-        <v>1.3348103532335499E-3</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>2.80369435608831E-4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8.2633008058312596E-5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.3212253442079001E-5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>7.8327752740169395E-6</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="2"/>
-      <c r="L11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="R11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="M11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.37026693386399E-3</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9.7071988674077596E-4</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="9">
+        <v>8.3324499754659697E-5</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="2"/>
-      <c r="L12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="R12" s="3"/>
+      <c r="J12" s="2"/>
+      <c r="M12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>80</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="9">
+        <v>9.5579351703505E-4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.2662578150678601E-4</v>
+      </c>
+      <c r="E13" s="6">
+        <v>8.5856780822934006E-5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2.57278732788733E-5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="L13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="R13" s="3"/>
+      <c r="J13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9.6576393213734595E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.21109535182717E-4</v>
+      </c>
+      <c r="E14" s="6">
+        <v>8.8269180684112601E-5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.33910073269201E-5</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.9489679476824503E-4</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.1926453565268599E-4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2.3082950301818299E-5</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>2.2111332503863701E-4</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1">
+        <v>2.2492290864801199E-4</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.14275598615009E-3</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.19398417951354E-3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="M19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+      <c r="G21">
+        <v>0.4</v>
+      </c>
+      <c r="I21">
+        <v>0.8</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>4.2157997705316898E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.5402265726613599E-2</v>
+      </c>
+      <c r="E22">
+        <v>3.3190268668194398E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.0082559948431E-2</v>
+      </c>
+      <c r="G22">
+        <v>2.1192339208863799E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.1309194626977199E-2</v>
+      </c>
+      <c r="I22">
+        <v>2.1649566553106701E-2</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.2537700263402997E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.5879399478506799E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.4433279491377299E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.9809104224251198E-2</v>
+      </c>
+      <c r="G23">
+        <v>2.1135453154632E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.1735523267303901E-2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.17014814846665E-2</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2.7688801797698798E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.69258017962816E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.26724535348326E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.9396573431127901E-2</v>
+      </c>
+      <c r="G24">
+        <v>2.1084867293751801E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.1450644129632102E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2.1944271381509499E-2</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="H25" s="1">
+        <v>2.1560293018166601E-2</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.2154018418347701E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.6787441572961199E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.1163782084041301E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.0114288765275601E-2</v>
+      </c>
+      <c r="G26">
+        <v>2.10037328641767E-2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.1957726350761601E-2</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2.0857112898213299E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.6281442598444301E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2.0630475502350299E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2.0655722070227402E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.1583149702840702E-2</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2.15784666675513E-2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2.2044414186548299E-2</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B28">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>0.4</v>
-      </c>
-      <c r="H16">
-        <v>0.8</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>4</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17">
+      <c r="C28" s="8"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="1">
+        <v>2.1143260993066501E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2.1823278481965899E-2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2.1859192668749802E-2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>2.2071327209270099E-2</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="1">
+        <v>2.0778393219983499E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2.1344757085045199E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.1915075349976599E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2.1712812164255201E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2.2004730860802901E-2</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1.83247581220757E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.6283810238519901E-2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2.0916979365100199E-2</v>
+      </c>
+      <c r="F30" s="8">
+        <v>2.2117955918941098E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.2024803975700401E-2</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.8428630547850398E-2</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>2.1412354966330802E-2</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.86373088795296E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.72984353519357E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2.1389556067157801E-2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2.1320280243575501E-2</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.8868442028032301E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.73932056545174E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2.1664014527146998E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.09863096776223E-2</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.9364990760103201E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.7201244976176699E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.07733489588268E-2</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1">
+        <v>1.6682134281385499E-2</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1">
+        <v>1.6339857304058101E-2</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.9819473266199299E-2</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.0030677994660399E-2</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>5.4349612276588501E-2</v>
-      </c>
-      <c r="E17">
-        <v>4.7551119137370097E-2</v>
-      </c>
-      <c r="F17">
-        <v>4.7551119137370097E-2</v>
-      </c>
-      <c r="G17">
-        <v>3.08415811722417E-2</v>
-      </c>
-      <c r="H17">
-        <v>3.0981412309963201E-2</v>
-      </c>
-      <c r="I17">
-        <v>3.09816586753149E-2</v>
-      </c>
-      <c r="J17">
-        <v>3.09817589138358E-2</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E18" s="1">
-        <v>2.9276830469593701E-2</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E19" s="1">
-        <v>2.67986922732458E-2</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3.2537700263402997E-2</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <v>2.4433279491377299E-2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2.4076109522793598E-2</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2.7688801797698798E-2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2.26724535348326E-2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.1987466501207802E-2</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2.2154018418347701E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2.6092916132663201E-2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.1163782084041301E-2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.0735702787165598E-2</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.0857112898213299E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.4489634770426299E-2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>2.0630475502350299E-2</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.02008083549397E-2</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1.83247581220757E-2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.0368013265407801E-2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2.0916979365100199E-2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2.0324502491838699E-2</v>
-      </c>
-      <c r="L24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.9364990760103201E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.87921519660884E-2</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>40</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.9819473266199299E-2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.8050649828845501E-2</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>60</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.8200306201789598E-2</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>80</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>358</v>
-      </c>
-      <c r="E32">
-        <v>425</v>
-      </c>
-      <c r="G32">
-        <v>507</v>
-      </c>
-      <c r="H32">
-        <v>805</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4381.0954709053003</v>
-      </c>
-      <c r="J32" s="3">
-        <v>47910.581159114801</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E33" s="1">
-        <v>1174.62300157547</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="L33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E34" s="1">
-        <v>1236.94693613052</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="L34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1173.3982374668101</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1">
-        <v>1317.2863118648499</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1297.97289180755</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1193.6185204982701</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1">
-        <v>1381.1984794139801</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1359.5781197547899</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1179.9670536517999</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1141.8552277088099</v>
-      </c>
-      <c r="E37" s="1">
-        <v>1428.3527638912201</v>
-      </c>
-      <c r="F37" s="1">
-        <v>1397.7716484069799</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1175.7681207656799</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1137.0494141578599</v>
-      </c>
-      <c r="E38" s="1">
-        <v>1349.0962891578599</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1406.71039056777</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1088.35927176475</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1090.2222242355299</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1358.9583809375699</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1416.5813088417001</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1046.2562088966299</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1038.46350002288</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M40" s="1"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41" s="1">
-        <v>964.033062696456</v>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>358</v>
       </c>
       <c r="D41" s="1">
-        <v>960.20608949661198</v>
-      </c>
-      <c r="L41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+        <v>386.10558533668501</v>
+      </c>
+      <c r="E41">
+        <v>425</v>
+      </c>
+      <c r="F41" s="1">
+        <v>432.26440834998999</v>
+      </c>
+      <c r="G41">
+        <v>507</v>
+      </c>
+      <c r="H41" s="1">
+        <v>486.06588125228802</v>
+      </c>
+      <c r="I41">
+        <v>805</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="M41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>60</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1173.3982374668101</v>
+      </c>
       <c r="D42" s="1">
-        <v>901.76495480537403</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+        <v>1216.2255551815001</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1219.3130993842999</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1278.6415166854799</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1489.6343374252299</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1865.9854154586701</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>80</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1193.6185204982701</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1256.80355668067</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1311.83111524581</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1343.52254533767</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1571.67075538635</v>
+      </c>
+      <c r="I43">
+        <v>2035.30180907249</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="H44" s="1">
+        <v>1649.1379532814001</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1179.9670536517999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1299.2812724113401</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1345.93345952034</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1376.5576622486101</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2262.5930788516998</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1175.7681207656799</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1286.8041162490799</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1346.89820289611</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1436.0135161876599</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1610.20741271972</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1672.4657809734299</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2372.5564203262302</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1479.43412756919</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1627.72502565383</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1719.32516312599</v>
+      </c>
+      <c r="I47" s="1">
+        <v>2483.18067169189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>7</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C50" s="1"/>
+      <c r="E48" s="1">
+        <v>1424.86838841438</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1439.06739139556</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1572.1822967529199</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1746.1779446601799</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2582.8206508159601</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1088.35927176475</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1281.47788333892</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1358.9583809375699</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1430.89058160781</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1571.02543139457</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1055.4782059192601</v>
+      </c>
       <c r="D50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
+      <c r="E50" s="1">
+        <v>1329.4326524734399</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51" s="1">
+        <v>999.20175719261101</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1256.06880331039</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1301.1575269698999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1427.7849440574601</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1088.1981434822001</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1248.3260238170601</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1432.1130383014599</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1520.4358377456599</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1046.2562088966299</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1222.9826674461301</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1">
+        <v>1451.93372893333</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>40</v>
+      </c>
+      <c r="C54" s="1">
+        <v>964.033062696456</v>
+      </c>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>968.754003047943</v>
+      </c>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M62" s="1"/>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M63" s="1"/>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="P64" s="1"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
@@ -3160,6 +3622,58 @@
     <row r="86" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_cases/trench_sed_model/adapt_output.xlsx
+++ b/test_cases/trench_sed_model/adapt_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/trench_sed_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0272CC-42A5-E04E-A128-9A025174BD81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC8CD3C-FE1C-6D43-80C6-A3FE379309B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="20480" windowHeight="14900" activeTab="1" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -77,6 +77,12 @@
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -137,6 +143,8 @@
     <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2257,7 +2265,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2372,6 +2380,9 @@
         <v>2.7462931734768201E-7</v>
       </c>
       <c r="J3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
@@ -2391,8 +2402,8 @@
       <c r="F4" s="6">
         <v>2.1942794535056201E-5</v>
       </c>
-      <c r="G4" s="2">
-        <v>5.7007984273819102E-6</v>
+      <c r="G4" s="12">
+        <v>4.3332893144669299E-6</v>
       </c>
       <c r="H4" s="6">
         <v>5.4296328813932103E-6</v>
@@ -2401,13 +2412,8 @@
         <v>1.8299744977908301E-7</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -2423,8 +2429,8 @@
       <c r="F5" s="6">
         <v>3.6792801645938497E-5</v>
       </c>
-      <c r="G5" s="2">
-        <v>5.6919084900842897E-6</v>
+      <c r="G5" s="6">
+        <v>8.0147665811370996E-6</v>
       </c>
       <c r="H5" s="6">
         <v>7.9068739516872295E-7</v>
@@ -2433,6 +2439,7 @@
         <v>1.29505585784433E-6</v>
       </c>
       <c r="J5" s="2"/>
+      <c r="K5" s="13"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
@@ -2447,7 +2454,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <v>8.4923365078648803E-6</v>
       </c>
       <c r="H6" s="6">
@@ -2461,7 +2468,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -2477,8 +2484,8 @@
       <c r="F7" s="6">
         <v>1.43093974664379E-5</v>
       </c>
-      <c r="G7" s="2">
-        <v>5.9114372865844203E-6</v>
+      <c r="G7" s="6">
+        <v>5.1029081494220203E-6</v>
       </c>
       <c r="H7" s="11">
         <v>1.4100000000000001E-6</v>
@@ -2487,6 +2494,7 @@
         <v>1.4735444717825901E-6</v>
       </c>
       <c r="J7" s="2"/>
+      <c r="K7" s="13"/>
       <c r="M7" s="1"/>
       <c r="P7" s="1"/>
       <c r="S7" s="3"/>
@@ -2625,7 +2633,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>15</v>
       </c>
@@ -2645,7 +2653,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="2"/>
       <c r="M13" s="1"/>
       <c r="P13" s="1"/>
@@ -2677,7 +2685,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>20</v>
       </c>
@@ -2695,7 +2703,7 @@
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="2"/>
       <c r="M15" s="1"/>
       <c r="P15" s="1"/>
@@ -2796,19 +2804,28 @@
       <c r="C21">
         <v>0.1</v>
       </c>
+      <c r="D21">
+        <v>0.125</v>
+      </c>
       <c r="E21">
         <v>0.2</v>
       </c>
+      <c r="F21">
+        <v>0.25</v>
+      </c>
       <c r="G21">
         <v>0.4</v>
       </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
       <c r="I21">
         <v>0.8</v>
       </c>
       <c r="M21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -2833,6 +2850,7 @@
       <c r="I22">
         <v>2.1649566553106701E-2</v>
       </c>
+      <c r="J22" s="13"/>
       <c r="M22" s="1"/>
       <c r="P22" s="1"/>
     </row>
@@ -2852,8 +2870,8 @@
       <c r="F23" s="1">
         <v>1.9809104224251198E-2</v>
       </c>
-      <c r="G23">
-        <v>2.1135453154632E-2</v>
+      <c r="G23" s="1">
+        <v>2.0941401741827102E-2</v>
       </c>
       <c r="H23" s="1">
         <v>2.1735523267303901E-2</v>
@@ -2880,8 +2898,8 @@
       <c r="F24" s="1">
         <v>1.9396573431127901E-2</v>
       </c>
-      <c r="G24">
-        <v>2.1084867293751801E-2</v>
+      <c r="G24" s="1">
+        <v>2.1620607086892198E-2</v>
       </c>
       <c r="H24" s="1">
         <v>2.1450644129632102E-2</v>
@@ -2922,8 +2940,8 @@
       <c r="F26" s="1">
         <v>2.0114288765275601E-2</v>
       </c>
-      <c r="G26">
-        <v>2.10037328641767E-2</v>
+      <c r="G26" s="1">
+        <v>2.16263891193114E-2</v>
       </c>
       <c r="I26" s="1">
         <v>2.1957726350761601E-2</v>
@@ -3045,7 +3063,7 @@
       <c r="M31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>15</v>
       </c>
@@ -3061,6 +3079,7 @@
       <c r="F32" s="8">
         <v>2.1320280243575501E-2</v>
       </c>
+      <c r="G32" s="13"/>
       <c r="M32" s="1"/>
       <c r="P32" s="1"/>
     </row>
@@ -3162,10 +3181,27 @@
       <c r="B40" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="C40" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D40">
+        <v>0.125</v>
+      </c>
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+      <c r="F40">
+        <v>0.25</v>
+      </c>
+      <c r="G40">
+        <v>0.4</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40">
+        <v>0.8</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="P40" s="1"/>
     </row>
@@ -3215,6 +3251,9 @@
       <c r="F42" s="1">
         <v>1278.6415166854799</v>
       </c>
+      <c r="G42" s="1">
+        <v>1271.29362368583</v>
+      </c>
       <c r="H42" s="1">
         <v>1489.6343374252299</v>
       </c>
@@ -3239,6 +3278,9 @@
       </c>
       <c r="F43" s="1">
         <v>1343.52254533767</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1408</v>
       </c>
       <c r="H43" s="1">
         <v>1571.67075538635</v>

--- a/test_cases/trench_sed_model/adapt_output.xlsx
+++ b/test_cases/trench_sed_model/adapt_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/trench_sed_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A247AB3-627E-7247-8D8E-067FB5111F68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95C3D58-DC31-D544-8331-E9F4F5935EC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="20480" windowHeight="14900" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 2" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>alpha</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>diverged</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,7 +634,9 @@
       <c r="K5" s="12"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="O5">
+        <v>1</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
@@ -648,9 +656,17 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="2"/>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1">
+        <v>3.1216732375825399E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>2.4651746778751E-2</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
@@ -713,6 +729,9 @@
       </c>
       <c r="J8" s="2"/>
       <c r="M8" s="1"/>
+      <c r="O8">
+        <v>1</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -737,8 +756,16 @@
         <v>1.9918942250731702E-6</v>
       </c>
       <c r="J9" s="2"/>
+      <c r="L9" t="s">
+        <v>5</v>
+      </c>
       <c r="M9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="1">
+        <v>3.0711137645449301E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.4315875872617999E-2</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
